--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauren\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauren\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>A</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -405,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6351211-ACCB-47E8-9CE5-8750A59B8F69}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -464,6 +479,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -405,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6351211-ACCB-47E8-9CE5-8750A59B8F69}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{EC8C0B67-BC3F-514C-9E4F-1D7FDF99912A}">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -462,6 +462,11 @@
       </c>
       <c r="E3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>A</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>68i</t>
+  </si>
+  <si>
+    <t>oh!</t>
   </si>
 </sst>
 </file>
@@ -420,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6351211-ACCB-47E8-9CE5-8750A59B8F69}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{EC8C0B67-BC3F-514C-9E4F-1D7FDF99912A}">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -445,7 +451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -462,7 +468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -479,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -494,6 +500,16 @@
       </c>
       <c r="E4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauren\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="8630" windowHeight="5690" xr2:uid="{793FA7CA-CD3A-4691-AB8B-0018C2A247C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,70 +25,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>68i</t>
-  </si>
-  <si>
-    <t>oh!</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>Name of Project</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>OAI-PMH Reg Data providers</t>
+  </si>
+  <si>
+    <t>Oxford Text Archive</t>
+  </si>
+  <si>
+    <t>Europeana</t>
+  </si>
+  <si>
+    <t>The National Arhives</t>
+  </si>
+  <si>
+    <t>Google Book Search</t>
+  </si>
+  <si>
+    <t>https://www.openarchives.org/Register/BrowseSites</t>
+  </si>
+  <si>
+    <t>http://ota.ox.ac.uk/</t>
+  </si>
+  <si>
+    <t>List of OAI conforming repositories</t>
+  </si>
+  <si>
+    <t>List of literary and liguistic resources</t>
+  </si>
+  <si>
+    <t>http://www.nationalarchives.gov.uk/</t>
+  </si>
+  <si>
+    <t>Catalogue of archival documents</t>
+  </si>
+  <si>
+    <t>https://www.europeana.eu/portal/en</t>
+  </si>
+  <si>
+    <t>Archive of images (art, fashion etc)</t>
+  </si>
+  <si>
+    <t>https://books.google.co.uk/</t>
+  </si>
+  <si>
+    <t>Archive of textual material</t>
+  </si>
+  <si>
+    <t>Project Gutenberg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,13 +140,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,94 +463,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6351211-ACCB-47E8-9CE5-8750A59B8F69}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{EC8C0B67-BC3F-514C-9E4F-1D7FDF99912A}">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J5" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>15</v>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>